--- a/public/organization-list.xlsx
+++ b/public/organization-list.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NISE3 Everything\nise3-organization-management-api-service\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="5925"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -26,21 +34,64 @@
   </si>
   <si>
     <t>Rahul Das</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>wedferg</t>
+  </si>
+  <si>
+    <t>rtjrtjtjtyj</t>
+  </si>
+  <si>
+    <t>dfhtgh LASTTTT</t>
+  </si>
+  <si>
+    <t>tjtyj  LASTTTT</t>
+  </si>
+  <si>
+    <t>f24402</t>
+  </si>
+  <si>
+    <t>f402</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,36 +99,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -267,24 +330,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.71"/>
-    <col customWidth="1" min="2" max="2" width="32.57"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -295,7 +363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -303,10 +371,47 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>1.674248402E9</v>
+        <v>1674248402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1674248402</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LFirst&amp;CSecond&amp;RThird</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/public/organization-list.xlsx
+++ b/public/organization-list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Organization type id</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Row status</t>
+  </si>
+  <si>
+    <t>Sub trade</t>
   </si>
 </sst>
 </file>
@@ -457,143 +460,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/public/organization-list.xlsx
+++ b/public/organization-list.xlsx
@@ -7,14 +7,28 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Organizations" sheetId="1" r:id="rId1"/>
+    <sheet name="Organization types" sheetId="2" r:id="rId2"/>
+    <sheet name="Sub trades" sheetId="4" r:id="rId3"/>
+    <sheet name="Permission sub group" sheetId="6" r:id="rId4"/>
+    <sheet name="Divisions" sheetId="7" r:id="rId5"/>
+    <sheet name="Districts" sheetId="8" r:id="rId6"/>
+    <sheet name="Upazilas" sheetId="9" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="districts">Districts!$A$1:$A$64</definedName>
+    <definedName name="divisions">Divisions!$A$1:$A$8</definedName>
+    <definedName name="organization_types">'Organization types'!$A$1:$A$5</definedName>
+    <definedName name="permission_sub_groups">'Permission sub group'!$A$1:$A$2</definedName>
+    <definedName name="sub_trades">'Sub trades'!$A$1:$A$12</definedName>
+    <definedName name="upazilas">Upazilas!$A$1:$A$493</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="626">
   <si>
     <t>Organization type id</t>
   </si>
@@ -109,9 +123,6 @@
     <t>Description en</t>
   </si>
   <si>
-    <t>Domain</t>
-  </si>
-  <si>
     <t>Logo</t>
   </si>
   <si>
@@ -119,16 +130,1803 @@
   </si>
   <si>
     <t>Sub trade</t>
+  </si>
+  <si>
+    <t>Government Organization</t>
+  </si>
+  <si>
+    <t>Private Organization</t>
+  </si>
+  <si>
+    <t>Public Corporation</t>
+  </si>
+  <si>
+    <t>NGO</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Automotive Industry Sub Trade 1</t>
+  </si>
+  <si>
+    <t>Automotive Industry Sub Trade 2</t>
+  </si>
+  <si>
+    <t>Chemical Sub Trade 1</t>
+  </si>
+  <si>
+    <t>Chemical Sub Trade 2</t>
+  </si>
+  <si>
+    <t>Biotech Sub Trade 1</t>
+  </si>
+  <si>
+    <t>Biotech Sub Trade 2</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Sub Trade 1</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Sub Trade 2</t>
+  </si>
+  <si>
+    <t>T K Group Sub Trade 1</t>
+  </si>
+  <si>
+    <t>T K Group Sub Trade 2</t>
+  </si>
+  <si>
+    <t>Tourism Sub Trade 1</t>
+  </si>
+  <si>
+    <t>Tourism Sub Trade 2</t>
+  </si>
+  <si>
+    <t>Industry Permission Sub Group - 1</t>
+  </si>
+  <si>
+    <t>Industry Permission Sub Group - 2</t>
+  </si>
+  <si>
+    <t>Barisal</t>
+  </si>
+  <si>
+    <t>Chittagong</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Khulna</t>
+  </si>
+  <si>
+    <t>Rajshahi</t>
+  </si>
+  <si>
+    <t>Rangpur</t>
+  </si>
+  <si>
+    <t>Sylhet</t>
+  </si>
+  <si>
+    <t>Mymensingh</t>
+  </si>
+  <si>
+    <t>BARGUNA</t>
+  </si>
+  <si>
+    <t>BARISAL</t>
+  </si>
+  <si>
+    <t>BHOLA</t>
+  </si>
+  <si>
+    <t>JHALOKATI</t>
+  </si>
+  <si>
+    <t>PATUAKHALI</t>
+  </si>
+  <si>
+    <t>PIROJPUR</t>
+  </si>
+  <si>
+    <t>BANDARBAN</t>
+  </si>
+  <si>
+    <t>BRAHMANBARIA</t>
+  </si>
+  <si>
+    <t>CHANDPUR</t>
+  </si>
+  <si>
+    <t>CHITTAGONG</t>
+  </si>
+  <si>
+    <t>COMILLA</t>
+  </si>
+  <si>
+    <t>COX'S BAZAR</t>
+  </si>
+  <si>
+    <t>FENI</t>
+  </si>
+  <si>
+    <t>KHAGRACHHARI</t>
+  </si>
+  <si>
+    <t>LAKSHMIPUR</t>
+  </si>
+  <si>
+    <t>NOAKHALI</t>
+  </si>
+  <si>
+    <t>RANGAMATI</t>
+  </si>
+  <si>
+    <t>DHAKA</t>
+  </si>
+  <si>
+    <t>FARIDPUR</t>
+  </si>
+  <si>
+    <t>GAZIPUR</t>
+  </si>
+  <si>
+    <t>GOPALGANJ</t>
+  </si>
+  <si>
+    <t>JAMALPUR</t>
+  </si>
+  <si>
+    <t>KISHOREGONJ</t>
+  </si>
+  <si>
+    <t>MADARIPUR</t>
+  </si>
+  <si>
+    <t>MANIKGANJ</t>
+  </si>
+  <si>
+    <t>MUNSHIGANJ</t>
+  </si>
+  <si>
+    <t>MYMENSINGH</t>
+  </si>
+  <si>
+    <t>NARAYANGANJ</t>
+  </si>
+  <si>
+    <t>NARSINGDI</t>
+  </si>
+  <si>
+    <t>NETRAKONA</t>
+  </si>
+  <si>
+    <t>RAJBARI</t>
+  </si>
+  <si>
+    <t>SHARIATPUR</t>
+  </si>
+  <si>
+    <t>SHERPUR</t>
+  </si>
+  <si>
+    <t>TANGAIL</t>
+  </si>
+  <si>
+    <t>BAGERHAT</t>
+  </si>
+  <si>
+    <t>CHUADANGA</t>
+  </si>
+  <si>
+    <t>JESSORE</t>
+  </si>
+  <si>
+    <t>JHENAIDAH</t>
+  </si>
+  <si>
+    <t>KHULNA</t>
+  </si>
+  <si>
+    <t>KUSHTIA</t>
+  </si>
+  <si>
+    <t>MAGURA</t>
+  </si>
+  <si>
+    <t>MEHERPUR</t>
+  </si>
+  <si>
+    <t>NARAIL</t>
+  </si>
+  <si>
+    <t>SATKHIRA</t>
+  </si>
+  <si>
+    <t>BOGRA</t>
+  </si>
+  <si>
+    <t>JOYPURHAT</t>
+  </si>
+  <si>
+    <t>NAOGAON</t>
+  </si>
+  <si>
+    <t>NATORE</t>
+  </si>
+  <si>
+    <t>CHAPAI NABABGANJ</t>
+  </si>
+  <si>
+    <t>PABNA</t>
+  </si>
+  <si>
+    <t>RAJSHAHI</t>
+  </si>
+  <si>
+    <t>SIRAJGANJ</t>
+  </si>
+  <si>
+    <t>DINAJPUR</t>
+  </si>
+  <si>
+    <t>GAIBANDHA</t>
+  </si>
+  <si>
+    <t>KURIGRAM</t>
+  </si>
+  <si>
+    <t>LALMONIRHAT</t>
+  </si>
+  <si>
+    <t>NILPHAMARI</t>
+  </si>
+  <si>
+    <t>PANCHAGARH</t>
+  </si>
+  <si>
+    <t>RANGPUR</t>
+  </si>
+  <si>
+    <t>THAKURGAON</t>
+  </si>
+  <si>
+    <t>HABIGANJ</t>
+  </si>
+  <si>
+    <t>MAULVIBAZAR</t>
+  </si>
+  <si>
+    <t>SUNAMGANJ</t>
+  </si>
+  <si>
+    <t>SYLHET</t>
+  </si>
+  <si>
+    <t>BAGERHAT SADAR</t>
+  </si>
+  <si>
+    <t>CHITALMARI</t>
+  </si>
+  <si>
+    <t>FAKIRHAT</t>
+  </si>
+  <si>
+    <t>KACHUA</t>
+  </si>
+  <si>
+    <t>MOLLAHAT</t>
+  </si>
+  <si>
+    <t>MONGLA</t>
+  </si>
+  <si>
+    <t>MORRELGANJ</t>
+  </si>
+  <si>
+    <t>RAMPAL</t>
+  </si>
+  <si>
+    <t>SARANKHOLA</t>
+  </si>
+  <si>
+    <t>ALIKADAM</t>
+  </si>
+  <si>
+    <t>BANDARBAN SADAR</t>
+  </si>
+  <si>
+    <t>LAMA</t>
+  </si>
+  <si>
+    <t>NAIKHONGCHHARI</t>
+  </si>
+  <si>
+    <t>ROWANGCHHARI</t>
+  </si>
+  <si>
+    <t>RUMA</t>
+  </si>
+  <si>
+    <t>THANCHI</t>
+  </si>
+  <si>
+    <t>AMTALI</t>
+  </si>
+  <si>
+    <t>BAMNA</t>
+  </si>
+  <si>
+    <t>BARGUNA SADAR</t>
+  </si>
+  <si>
+    <t>BETAGI</t>
+  </si>
+  <si>
+    <t>PATHARGHATA</t>
+  </si>
+  <si>
+    <t>AGAILJHARA</t>
+  </si>
+  <si>
+    <t>BABUGANJ</t>
+  </si>
+  <si>
+    <t>BAKERGANJ</t>
+  </si>
+  <si>
+    <t>BANARI PARA</t>
+  </si>
+  <si>
+    <t>GAURNADI</t>
+  </si>
+  <si>
+    <t>HIZLA</t>
+  </si>
+  <si>
+    <t>BARISAL SADAR (KOTWALI)</t>
+  </si>
+  <si>
+    <t>MHENDIGANJ</t>
+  </si>
+  <si>
+    <t>MULADI</t>
+  </si>
+  <si>
+    <t>WAZIRPUR</t>
+  </si>
+  <si>
+    <t>BHOLA SADAR</t>
+  </si>
+  <si>
+    <t>BURHANUDDIN</t>
+  </si>
+  <si>
+    <t>CHAR FASSON</t>
+  </si>
+  <si>
+    <t>DAULAT KHAN</t>
+  </si>
+  <si>
+    <t>LALMOHAN</t>
+  </si>
+  <si>
+    <t>MANPURA</t>
+  </si>
+  <si>
+    <t>TAZUMUDDIN</t>
+  </si>
+  <si>
+    <t>ADAMDIGHI</t>
+  </si>
+  <si>
+    <t>BOGRA SADAR</t>
+  </si>
+  <si>
+    <t>DHUNAT</t>
+  </si>
+  <si>
+    <t>DHUPCHANCHIA</t>
+  </si>
+  <si>
+    <t>GABTALI</t>
+  </si>
+  <si>
+    <t>KAHALOO</t>
+  </si>
+  <si>
+    <t>NANDIGRAM</t>
+  </si>
+  <si>
+    <t>SARIAKANDI</t>
+  </si>
+  <si>
+    <t>SHAJAHANPUR</t>
+  </si>
+  <si>
+    <t>SHIBGANJ</t>
+  </si>
+  <si>
+    <t>SONATOLA</t>
+  </si>
+  <si>
+    <t>AKHAURA</t>
+  </si>
+  <si>
+    <t>BANCHHARAMPUR</t>
+  </si>
+  <si>
+    <t>BRAHMANBARIA SADAR</t>
+  </si>
+  <si>
+    <t>ASHUGANJ</t>
+  </si>
+  <si>
+    <t>KASBA</t>
+  </si>
+  <si>
+    <t>NABINAGAR</t>
+  </si>
+  <si>
+    <t>NASIRNAGAR</t>
+  </si>
+  <si>
+    <t>SARAIL</t>
+  </si>
+  <si>
+    <t>CHANDPUR SADAR</t>
+  </si>
+  <si>
+    <t>FARIDGANJ</t>
+  </si>
+  <si>
+    <t>HAIM CHAR</t>
+  </si>
+  <si>
+    <t>HAJIGANJ</t>
+  </si>
+  <si>
+    <t>MATLAB DAKSHIN</t>
+  </si>
+  <si>
+    <t>MATLAB UTTAR</t>
+  </si>
+  <si>
+    <t>SHAHRASTI</t>
+  </si>
+  <si>
+    <t>ANOWARA</t>
+  </si>
+  <si>
+    <t>BANSHKHALI</t>
+  </si>
+  <si>
+    <t>BOALKHALI</t>
+  </si>
+  <si>
+    <t>CHANDANAISH</t>
+  </si>
+  <si>
+    <t>KALUKHALI</t>
+  </si>
+  <si>
+    <t>FATIKCHHARI</t>
+  </si>
+  <si>
+    <t>HATHAZARI</t>
+  </si>
+  <si>
+    <t>LOHAGARA</t>
+  </si>
+  <si>
+    <t>MIRSHARAI</t>
+  </si>
+  <si>
+    <t>BIJOYNAGAR</t>
+  </si>
+  <si>
+    <t>RANGABALI</t>
+  </si>
+  <si>
+    <t>PATIYA</t>
+  </si>
+  <si>
+    <t>RANGUNIA</t>
+  </si>
+  <si>
+    <t>RAOZAN</t>
+  </si>
+  <si>
+    <t>SANDWIP</t>
+  </si>
+  <si>
+    <t>SATKANIA</t>
+  </si>
+  <si>
+    <t>SITAKUNDA</t>
+  </si>
+  <si>
+    <t>ALAMDANGA</t>
+  </si>
+  <si>
+    <t>CHUADANGA SADAR</t>
+  </si>
+  <si>
+    <t>DAMURHUDA</t>
+  </si>
+  <si>
+    <t>JIBAN NAGAR</t>
+  </si>
+  <si>
+    <t>BARURA</t>
+  </si>
+  <si>
+    <t>BRAHMAN PARA</t>
+  </si>
+  <si>
+    <t>BURICHANG</t>
+  </si>
+  <si>
+    <t>CHANDINA</t>
+  </si>
+  <si>
+    <t>CHAUDDAGRAM</t>
+  </si>
+  <si>
+    <t>COMILLA SADAR DAKSHIN</t>
+  </si>
+  <si>
+    <t>DAUDKANDI</t>
+  </si>
+  <si>
+    <t>DEBIDWAR</t>
+  </si>
+  <si>
+    <t>HOMNA</t>
+  </si>
+  <si>
+    <t>COMILLA ADARSHA SADAR</t>
+  </si>
+  <si>
+    <t>LAKSAM</t>
+  </si>
+  <si>
+    <t>MANOHARGANJ</t>
+  </si>
+  <si>
+    <t>MEGHNA</t>
+  </si>
+  <si>
+    <t>MURADNAGAR</t>
+  </si>
+  <si>
+    <t>NANGALKOT</t>
+  </si>
+  <si>
+    <t>TITAS</t>
+  </si>
+  <si>
+    <t>CHAKARIA</t>
+  </si>
+  <si>
+    <t>COX'S BAZAR SADAR</t>
+  </si>
+  <si>
+    <t>KUTUBDIA</t>
+  </si>
+  <si>
+    <t>MAHESHKHALI</t>
+  </si>
+  <si>
+    <t>PEKUA</t>
+  </si>
+  <si>
+    <t>RAMU</t>
+  </si>
+  <si>
+    <t>TEKNAF</t>
+  </si>
+  <si>
+    <t>UKHIA UPAZILA</t>
+  </si>
+  <si>
+    <t>TEJGAON UNNAYAN CIRCLE</t>
+  </si>
+  <si>
+    <t>DHAMRAI</t>
+  </si>
+  <si>
+    <t>DOHAR</t>
+  </si>
+  <si>
+    <t>KERANIGANJ</t>
+  </si>
+  <si>
+    <t>NAWABGANJ</t>
+  </si>
+  <si>
+    <t>SAVAR</t>
+  </si>
+  <si>
+    <t>BIRAMPUR</t>
+  </si>
+  <si>
+    <t>BIRGANJ</t>
+  </si>
+  <si>
+    <t>BIRAL</t>
+  </si>
+  <si>
+    <t>BOCHAGANJ</t>
+  </si>
+  <si>
+    <t>CHIRIRBANDAR</t>
+  </si>
+  <si>
+    <t>FULBARI</t>
+  </si>
+  <si>
+    <t>GHORAGHAT</t>
+  </si>
+  <si>
+    <t>HAKIMPUR</t>
+  </si>
+  <si>
+    <t>KAHAROLE</t>
+  </si>
+  <si>
+    <t>KHANSAMA</t>
+  </si>
+  <si>
+    <t>DINAJPUR SADAR</t>
+  </si>
+  <si>
+    <t>PARBATIPUR</t>
+  </si>
+  <si>
+    <t>ALFADANGA</t>
+  </si>
+  <si>
+    <t>BHANGA</t>
+  </si>
+  <si>
+    <t>BOALMARI</t>
+  </si>
+  <si>
+    <t>CHAR BHADRASAN</t>
+  </si>
+  <si>
+    <t>FARIDPUR SADAR</t>
+  </si>
+  <si>
+    <t>MADHUKHALI</t>
+  </si>
+  <si>
+    <t>NAGARKANDA</t>
+  </si>
+  <si>
+    <t>SADARPUR</t>
+  </si>
+  <si>
+    <t>CHHAGALNAIYA</t>
+  </si>
+  <si>
+    <t>DAGANBHUIYAN</t>
+  </si>
+  <si>
+    <t>FENI SADAR</t>
+  </si>
+  <si>
+    <t>FULGAZI</t>
+  </si>
+  <si>
+    <t>PARSHURAM</t>
+  </si>
+  <si>
+    <t>SONAGAZI</t>
+  </si>
+  <si>
+    <t>FULCHHARI</t>
+  </si>
+  <si>
+    <t>GAIBANDHA SADAR</t>
+  </si>
+  <si>
+    <t>GOBINDAGANJ</t>
+  </si>
+  <si>
+    <t>PALASHBARI</t>
+  </si>
+  <si>
+    <t>SADULLAPUR</t>
+  </si>
+  <si>
+    <t>SAGHATA</t>
+  </si>
+  <si>
+    <t>SUNDARGANJ</t>
+  </si>
+  <si>
+    <t>GAZIPUR SADAR</t>
+  </si>
+  <si>
+    <t>KALIAKAIR</t>
+  </si>
+  <si>
+    <t>KALIGANJ</t>
+  </si>
+  <si>
+    <t>KAPASIA</t>
+  </si>
+  <si>
+    <t>SREEPUR</t>
+  </si>
+  <si>
+    <t>GOPALGANJ SADAR</t>
+  </si>
+  <si>
+    <t>KASHIANI</t>
+  </si>
+  <si>
+    <t>KOTALIPARA</t>
+  </si>
+  <si>
+    <t>MUKSUDPUR</t>
+  </si>
+  <si>
+    <t>TUNGIPARA</t>
+  </si>
+  <si>
+    <t>AJMIRIGANJ</t>
+  </si>
+  <si>
+    <t>BAHUBAL</t>
+  </si>
+  <si>
+    <t>BANIACHONG</t>
+  </si>
+  <si>
+    <t>CHUNARUGHAT</t>
+  </si>
+  <si>
+    <t>HABIGANJ SADAR</t>
+  </si>
+  <si>
+    <t>LAKHAI</t>
+  </si>
+  <si>
+    <t>MADHABPUR</t>
+  </si>
+  <si>
+    <t>NABIGANJ</t>
+  </si>
+  <si>
+    <t>AKKELPUR</t>
+  </si>
+  <si>
+    <t>JOYPURHAT SADAR</t>
+  </si>
+  <si>
+    <t>KALAI</t>
+  </si>
+  <si>
+    <t>KHETLAL</t>
+  </si>
+  <si>
+    <t>PANCHBIBI</t>
+  </si>
+  <si>
+    <t>BAKSHIGANJ</t>
+  </si>
+  <si>
+    <t>DEWANGANJ</t>
+  </si>
+  <si>
+    <t>ISLAMPUR</t>
+  </si>
+  <si>
+    <t>JAMALPUR SADAR</t>
+  </si>
+  <si>
+    <t>MADARGANJ</t>
+  </si>
+  <si>
+    <t>MELANDAHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARISHABARI </t>
+  </si>
+  <si>
+    <t>ABHAYNAGAR</t>
+  </si>
+  <si>
+    <t>BAGHER PARA</t>
+  </si>
+  <si>
+    <t>CHAUGACHHA</t>
+  </si>
+  <si>
+    <t>JHIKARGACHHA</t>
+  </si>
+  <si>
+    <t>KESHABPUR</t>
+  </si>
+  <si>
+    <t>Jessore Sadar</t>
+  </si>
+  <si>
+    <t>MANIRAMPUR</t>
+  </si>
+  <si>
+    <t>SHARSHA</t>
+  </si>
+  <si>
+    <t>JHALOKATI SADAR</t>
+  </si>
+  <si>
+    <t>KANTHALIA</t>
+  </si>
+  <si>
+    <t>NALCHITY</t>
+  </si>
+  <si>
+    <t>RAJAPUR</t>
+  </si>
+  <si>
+    <t>HARINAKUNDA</t>
+  </si>
+  <si>
+    <t>JHENAIDAH SADAR</t>
+  </si>
+  <si>
+    <t>KOTCHANDPUR</t>
+  </si>
+  <si>
+    <t>MAHESHPUR</t>
+  </si>
+  <si>
+    <t>SHAILKUPA</t>
+  </si>
+  <si>
+    <t>DIGHINALA</t>
+  </si>
+  <si>
+    <t>KHAGRACHHARI SADAR</t>
+  </si>
+  <si>
+    <t>LAKSHMICHHARI</t>
+  </si>
+  <si>
+    <t>MAHALCHHARI</t>
+  </si>
+  <si>
+    <t>MANIKCHHARI</t>
+  </si>
+  <si>
+    <t>MATIRANGA</t>
+  </si>
+  <si>
+    <t>PANCHHARI</t>
+  </si>
+  <si>
+    <t>RAMGARH</t>
+  </si>
+  <si>
+    <t>BATIAGHATA</t>
+  </si>
+  <si>
+    <t>Dakop</t>
+  </si>
+  <si>
+    <t>DUMURIA</t>
+  </si>
+  <si>
+    <t>DIGHALIA</t>
+  </si>
+  <si>
+    <t>KOYRA</t>
+  </si>
+  <si>
+    <t>PAIKGACHHA</t>
+  </si>
+  <si>
+    <t>PHULTALA</t>
+  </si>
+  <si>
+    <t>RUPSA</t>
+  </si>
+  <si>
+    <t>TEROKHADA</t>
+  </si>
+  <si>
+    <t>AUSTAGRAM</t>
+  </si>
+  <si>
+    <t>BAJITPUR</t>
+  </si>
+  <si>
+    <t>BHAIRAB</t>
+  </si>
+  <si>
+    <t>HOSSAINPUR</t>
+  </si>
+  <si>
+    <t>ITNA</t>
+  </si>
+  <si>
+    <t>KARIMGANJ</t>
+  </si>
+  <si>
+    <t>KATIADI</t>
+  </si>
+  <si>
+    <t>KISHOREGANJ SADAR</t>
+  </si>
+  <si>
+    <t>KULIAR CHAR</t>
+  </si>
+  <si>
+    <t>MITHAMAIN</t>
+  </si>
+  <si>
+    <t>NIKLI</t>
+  </si>
+  <si>
+    <t>PAKUNDIA</t>
+  </si>
+  <si>
+    <t>TARAIL</t>
+  </si>
+  <si>
+    <t>BHURUNGAMARI</t>
+  </si>
+  <si>
+    <t>CHAR RAJIBPUR</t>
+  </si>
+  <si>
+    <t>CHILMARI</t>
+  </si>
+  <si>
+    <t>PHULBARI</t>
+  </si>
+  <si>
+    <t>KURIGRAM SADAR</t>
+  </si>
+  <si>
+    <t>NAGESHWARI</t>
+  </si>
+  <si>
+    <t>RAJARHAT</t>
+  </si>
+  <si>
+    <t>RAUMARI</t>
+  </si>
+  <si>
+    <t>ULIPUR</t>
+  </si>
+  <si>
+    <t>BHERAMARA</t>
+  </si>
+  <si>
+    <t>DAULATPUR</t>
+  </si>
+  <si>
+    <t>KHOKSA</t>
+  </si>
+  <si>
+    <t>KUMARKHALI</t>
+  </si>
+  <si>
+    <t>KUSHTIA SADAR</t>
+  </si>
+  <si>
+    <t>MIRPUR</t>
+  </si>
+  <si>
+    <t>KAMALNAGAR</t>
+  </si>
+  <si>
+    <t>LAKSHMIPUR SADAR</t>
+  </si>
+  <si>
+    <t>ROYPUR</t>
+  </si>
+  <si>
+    <t>RAMGANJ</t>
+  </si>
+  <si>
+    <t>RAMGATI</t>
+  </si>
+  <si>
+    <t>ADITMARI</t>
+  </si>
+  <si>
+    <t>HATIBANDHA</t>
+  </si>
+  <si>
+    <t>LALMONIRHAT SADAR</t>
+  </si>
+  <si>
+    <t>PATGRAM</t>
+  </si>
+  <si>
+    <t>KALKINI</t>
+  </si>
+  <si>
+    <t>MADARIPUR SADAR</t>
+  </si>
+  <si>
+    <t>RAJOIR</t>
+  </si>
+  <si>
+    <t>SHIB CHAR</t>
+  </si>
+  <si>
+    <t>MAGURA SADAR</t>
+  </si>
+  <si>
+    <t>MOHAMMADPUR</t>
+  </si>
+  <si>
+    <t>SHALIKHA</t>
+  </si>
+  <si>
+    <t>GHIOR</t>
+  </si>
+  <si>
+    <t>HARIRAMPUR</t>
+  </si>
+  <si>
+    <t>MANIKGANJ SADAR</t>
+  </si>
+  <si>
+    <t>SATURIA</t>
+  </si>
+  <si>
+    <t>SHIBALAYA</t>
+  </si>
+  <si>
+    <t>SINGAIR</t>
+  </si>
+  <si>
+    <t>GANGNI</t>
+  </si>
+  <si>
+    <t>MUJIB NAGAR</t>
+  </si>
+  <si>
+    <t>MEHERPUR SADAR</t>
+  </si>
+  <si>
+    <t>BARLEKHA</t>
+  </si>
+  <si>
+    <t>JURI</t>
+  </si>
+  <si>
+    <t>KAMALGANJ</t>
+  </si>
+  <si>
+    <t>KULAURA</t>
+  </si>
+  <si>
+    <t>MAULVIBAZAR SADAR</t>
+  </si>
+  <si>
+    <t>RAJNAGAR</t>
+  </si>
+  <si>
+    <t>SREEMANGAL</t>
+  </si>
+  <si>
+    <t>GAZARIA</t>
+  </si>
+  <si>
+    <t>LOHAJANG</t>
+  </si>
+  <si>
+    <t>MUNSHIGANJ SADAR</t>
+  </si>
+  <si>
+    <t>SERAJDIKHAN</t>
+  </si>
+  <si>
+    <t>SREENAGAR</t>
+  </si>
+  <si>
+    <t>TONGIBARI</t>
+  </si>
+  <si>
+    <t>BHALUKA</t>
+  </si>
+  <si>
+    <t>DHOBAURA</t>
+  </si>
+  <si>
+    <t>FULBARIA</t>
+  </si>
+  <si>
+    <t>GAFFARGAON</t>
+  </si>
+  <si>
+    <t>GAURIPUR</t>
+  </si>
+  <si>
+    <t>HALUAGHAT</t>
+  </si>
+  <si>
+    <t>ISHWARGANJ</t>
+  </si>
+  <si>
+    <t>MYMENSINGH SADAR</t>
+  </si>
+  <si>
+    <t>MUKTAGACHHA</t>
+  </si>
+  <si>
+    <t>NANDAIL</t>
+  </si>
+  <si>
+    <t>PHULPUR</t>
+  </si>
+  <si>
+    <t>TRISHAL</t>
+  </si>
+  <si>
+    <t>ATRAI</t>
+  </si>
+  <si>
+    <t>BADALGACHHI</t>
+  </si>
+  <si>
+    <t>DHAMOIRHAT</t>
+  </si>
+  <si>
+    <t>MANDA</t>
+  </si>
+  <si>
+    <t>MAHADEBPUR</t>
+  </si>
+  <si>
+    <t>NAOGAON SADAR</t>
+  </si>
+  <si>
+    <t>NIAMATPUR</t>
+  </si>
+  <si>
+    <t>PATNITALA</t>
+  </si>
+  <si>
+    <t>PORSHA</t>
+  </si>
+  <si>
+    <t>RANINAGAR</t>
+  </si>
+  <si>
+    <t>SAPAHAR</t>
+  </si>
+  <si>
+    <t>KALIA</t>
+  </si>
+  <si>
+    <t>NARAIL SADAR</t>
+  </si>
+  <si>
+    <t>ARAIHAZAR</t>
+  </si>
+  <si>
+    <t>SONARGAON</t>
+  </si>
+  <si>
+    <t>BANDAR</t>
+  </si>
+  <si>
+    <t>NARAYANGANJ SADAR</t>
+  </si>
+  <si>
+    <t>RUPGANJ</t>
+  </si>
+  <si>
+    <t>BELABO</t>
+  </si>
+  <si>
+    <t>MANOHARDI</t>
+  </si>
+  <si>
+    <t>NARSINGDI SADAR</t>
+  </si>
+  <si>
+    <t>PALASH</t>
+  </si>
+  <si>
+    <t>ROYPURA</t>
+  </si>
+  <si>
+    <t>SHIBPUR</t>
+  </si>
+  <si>
+    <t>BAGATIPARA</t>
+  </si>
+  <si>
+    <t>BARAIGRAM</t>
+  </si>
+  <si>
+    <t>GURUDASPUR</t>
+  </si>
+  <si>
+    <t>LALPUR</t>
+  </si>
+  <si>
+    <t>NATORE SADAR</t>
+  </si>
+  <si>
+    <t>SINGRA</t>
+  </si>
+  <si>
+    <t>BHOLAHAT</t>
+  </si>
+  <si>
+    <t>GOMASTAPUR</t>
+  </si>
+  <si>
+    <t>NACHOLE</t>
+  </si>
+  <si>
+    <t>CHAPAI NABABGANJ SADAR</t>
+  </si>
+  <si>
+    <t>ATPARA</t>
+  </si>
+  <si>
+    <t>BARHATTA</t>
+  </si>
+  <si>
+    <t>DURGAPUR</t>
+  </si>
+  <si>
+    <t>KHALIAJURI</t>
+  </si>
+  <si>
+    <t>KALMAKANDA</t>
+  </si>
+  <si>
+    <t>KENDUA</t>
+  </si>
+  <si>
+    <t>MADAN</t>
+  </si>
+  <si>
+    <t>MOHANGANJ</t>
+  </si>
+  <si>
+    <t>NETROKONA SADAR</t>
+  </si>
+  <si>
+    <t>PURBADHALA</t>
+  </si>
+  <si>
+    <t>DIMLA UPAZILA</t>
+  </si>
+  <si>
+    <t>DOMAR UPAZILA</t>
+  </si>
+  <si>
+    <t>JALDHAKA UPAZILA</t>
+  </si>
+  <si>
+    <t>KISHOREGANJ UPAZILA</t>
+  </si>
+  <si>
+    <t>NILPHAMARI SADAR UPAZ</t>
+  </si>
+  <si>
+    <t>SAIDPUR UPAZILA</t>
+  </si>
+  <si>
+    <t>BEGUMGANJ</t>
+  </si>
+  <si>
+    <t>CHATKHIL</t>
+  </si>
+  <si>
+    <t>COMPANIGANJ</t>
+  </si>
+  <si>
+    <t>HATIYA</t>
+  </si>
+  <si>
+    <t>KABIRHAT</t>
+  </si>
+  <si>
+    <t>SENBAGH</t>
+  </si>
+  <si>
+    <t>SONAIMURI</t>
+  </si>
+  <si>
+    <t>SUBARNACHAR</t>
+  </si>
+  <si>
+    <t>NOAKHALI SADAR</t>
+  </si>
+  <si>
+    <t>ATGHARIA</t>
+  </si>
+  <si>
+    <t>BERA</t>
+  </si>
+  <si>
+    <t>BHANGURA</t>
+  </si>
+  <si>
+    <t>CHATMOHAR</t>
+  </si>
+  <si>
+    <t>ISHWARDI</t>
+  </si>
+  <si>
+    <t>PABNA SADAR</t>
+  </si>
+  <si>
+    <t>SANTHIA</t>
+  </si>
+  <si>
+    <t>SUJANAGAR</t>
+  </si>
+  <si>
+    <t>ATWARI</t>
+  </si>
+  <si>
+    <t>BODA</t>
+  </si>
+  <si>
+    <t>DEBIGANJ</t>
+  </si>
+  <si>
+    <t>PANCHAGARH SADAR</t>
+  </si>
+  <si>
+    <t>TENTULIA</t>
+  </si>
+  <si>
+    <t>BAUPHAL</t>
+  </si>
+  <si>
+    <t>DASHMINA</t>
+  </si>
+  <si>
+    <t>DUMKI UPAZILA</t>
+  </si>
+  <si>
+    <t>GALACHIPA</t>
+  </si>
+  <si>
+    <t>KALA PARA</t>
+  </si>
+  <si>
+    <t>MIRZAGANJ UPAZILA</t>
+  </si>
+  <si>
+    <t>PATUAKHALI SADAR</t>
+  </si>
+  <si>
+    <t>BHANDARIA</t>
+  </si>
+  <si>
+    <t>KAWKHALI</t>
+  </si>
+  <si>
+    <t>MATHBARIA</t>
+  </si>
+  <si>
+    <t>NAZIRPUR UPAZILA</t>
+  </si>
+  <si>
+    <t>PIROJPUR SADAR</t>
+  </si>
+  <si>
+    <t>NESARABAD (SWARUPKATI)</t>
+  </si>
+  <si>
+    <t>Indurkani</t>
+  </si>
+  <si>
+    <t>BAGHA</t>
+  </si>
+  <si>
+    <t>BAGHMARA</t>
+  </si>
+  <si>
+    <t>CHARGHAT</t>
+  </si>
+  <si>
+    <t>GODAGARI</t>
+  </si>
+  <si>
+    <t>MOHANPUR</t>
+  </si>
+  <si>
+    <t>PABA</t>
+  </si>
+  <si>
+    <t>PUTHIA</t>
+  </si>
+  <si>
+    <t>TANORE</t>
+  </si>
+  <si>
+    <t>BALIAKANDI</t>
+  </si>
+  <si>
+    <t>GOALANDA</t>
+  </si>
+  <si>
+    <t>PANGSHA</t>
+  </si>
+  <si>
+    <t>RAJBARI SADAR</t>
+  </si>
+  <si>
+    <t>BAGHAICHHARI</t>
+  </si>
+  <si>
+    <t>BARKAL UPAZILA</t>
+  </si>
+  <si>
+    <t>KAWKHALI (BETBUNIA)</t>
+  </si>
+  <si>
+    <t>BELAI CHHARI  UPAZI</t>
+  </si>
+  <si>
+    <t>KAPTAI  UPAZILA</t>
+  </si>
+  <si>
+    <t>JURAI CHHARI UPAZIL</t>
+  </si>
+  <si>
+    <t>LANGADU  UPAZILA</t>
+  </si>
+  <si>
+    <t>NANIARCHAR  UPAZILA</t>
+  </si>
+  <si>
+    <t>RAJASTHALI  UPAZILA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANGAMATI SADAR  </t>
+  </si>
+  <si>
+    <t>BADARGANJ</t>
+  </si>
+  <si>
+    <t>GANGACHARA</t>
+  </si>
+  <si>
+    <t>KAUNIA</t>
+  </si>
+  <si>
+    <t>RANGPUR SADAR</t>
+  </si>
+  <si>
+    <t>MITHA PUKUR</t>
+  </si>
+  <si>
+    <t>PIRGACHHA</t>
+  </si>
+  <si>
+    <t>PIRGANJ</t>
+  </si>
+  <si>
+    <t>TARAGANJ</t>
+  </si>
+  <si>
+    <t>BHEDARGANJ</t>
+  </si>
+  <si>
+    <t>DAMUDYA</t>
+  </si>
+  <si>
+    <t>GOSAIRHAT</t>
+  </si>
+  <si>
+    <t>NARIA</t>
+  </si>
+  <si>
+    <t>SHARIATPUR SADAR</t>
+  </si>
+  <si>
+    <t>ZANJIRA</t>
+  </si>
+  <si>
+    <t>ASSASUNI</t>
+  </si>
+  <si>
+    <t>DEBHATA</t>
+  </si>
+  <si>
+    <t>KALAROA</t>
+  </si>
+  <si>
+    <t>SATKHIRA SADAR</t>
+  </si>
+  <si>
+    <t>SHYAMNAGAR</t>
+  </si>
+  <si>
+    <t>TALA</t>
+  </si>
+  <si>
+    <t>BELKUCHI</t>
+  </si>
+  <si>
+    <t>CHAUHALI</t>
+  </si>
+  <si>
+    <t>KAMARKHANDA</t>
+  </si>
+  <si>
+    <t>KAZIPUR</t>
+  </si>
+  <si>
+    <t>ROYGANJ</t>
+  </si>
+  <si>
+    <t>SHAHJADPUR</t>
+  </si>
+  <si>
+    <t>SIRAJGANJ SADAR</t>
+  </si>
+  <si>
+    <t>TARASH</t>
+  </si>
+  <si>
+    <t>ULLAH PARA</t>
+  </si>
+  <si>
+    <t>JHENAIGATI</t>
+  </si>
+  <si>
+    <t>NAKLA</t>
+  </si>
+  <si>
+    <t>NALITABARI</t>
+  </si>
+  <si>
+    <t>SHERPUR SADAR</t>
+  </si>
+  <si>
+    <t>SREEBARDI</t>
+  </si>
+  <si>
+    <t>BISHWAMBARPUR</t>
+  </si>
+  <si>
+    <t>CHHATAK</t>
+  </si>
+  <si>
+    <t>DAKSHIN SUNAMGANJ</t>
+  </si>
+  <si>
+    <t>DERAI</t>
+  </si>
+  <si>
+    <t>DHARAMPASHA</t>
+  </si>
+  <si>
+    <t>DOWARABAZAR</t>
+  </si>
+  <si>
+    <t>JAGANNATHPUR</t>
+  </si>
+  <si>
+    <t>JAMALGANJ</t>
+  </si>
+  <si>
+    <t>SULLA</t>
+  </si>
+  <si>
+    <t>SUNAMGANJ SADAR</t>
+  </si>
+  <si>
+    <t>TAHIRPUR</t>
+  </si>
+  <si>
+    <t>BALAGANJ</t>
+  </si>
+  <si>
+    <t>BEANI BAZAR</t>
+  </si>
+  <si>
+    <t>BISHWANATH</t>
+  </si>
+  <si>
+    <t>DAKSHIN SURMA</t>
+  </si>
+  <si>
+    <t>FENCHUGANJ</t>
+  </si>
+  <si>
+    <t>GOLAPGANJ</t>
+  </si>
+  <si>
+    <t>GOWAINGHAT</t>
+  </si>
+  <si>
+    <t>JAINTIAPUR</t>
+  </si>
+  <si>
+    <t>KANAIGHAT</t>
+  </si>
+  <si>
+    <t>SYLHET SADAR</t>
+  </si>
+  <si>
+    <t>ZAKIGANJ</t>
+  </si>
+  <si>
+    <t>BASAIL</t>
+  </si>
+  <si>
+    <t>BHUAPUR</t>
+  </si>
+  <si>
+    <t>DELDUAR</t>
+  </si>
+  <si>
+    <t>DHANBARI</t>
+  </si>
+  <si>
+    <t>GHATAIL</t>
+  </si>
+  <si>
+    <t>GOPALPUR</t>
+  </si>
+  <si>
+    <t>KALIHATI</t>
+  </si>
+  <si>
+    <t>MADHUPUR</t>
+  </si>
+  <si>
+    <t>MIRZAPUR</t>
+  </si>
+  <si>
+    <t>NAGARPUR</t>
+  </si>
+  <si>
+    <t>SAKHIPUR</t>
+  </si>
+  <si>
+    <t>TANGAIL SADAR</t>
+  </si>
+  <si>
+    <t>BALIADANGI</t>
+  </si>
+  <si>
+    <t>HARIPUR</t>
+  </si>
+  <si>
+    <t>RANISANKAIL</t>
+  </si>
+  <si>
+    <t>THAKURGAON SADAR</t>
+  </si>
+  <si>
+    <t>SALTHA</t>
+  </si>
+  <si>
+    <t>Noldanga</t>
+  </si>
+  <si>
+    <t>Osmani Nagar</t>
+  </si>
+  <si>
+    <t>Tarakanda</t>
+  </si>
+  <si>
+    <t>KARNAFULI</t>
+  </si>
+  <si>
+    <t>Shayestaganj</t>
+  </si>
+  <si>
+    <t>TALTALI</t>
+  </si>
+  <si>
+    <t>Guimara</t>
+  </si>
+  <si>
+    <t>Lalmai</t>
+  </si>
+  <si>
+    <t>tfctt776576</t>
+  </si>
+  <si>
+    <t>AAAAAAAAA</t>
+  </si>
+  <si>
+    <t>BBBBBBBB</t>
+  </si>
+  <si>
+    <t>rtgfg</t>
+  </si>
+  <si>
+    <t>fgbgf</t>
+  </si>
+  <si>
+    <t>fgbfgb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fgbfb </t>
+  </si>
+  <si>
+    <t>ergfg@gmail.com</t>
+  </si>
+  <si>
+    <t>vbfdbf</t>
+  </si>
+  <si>
+    <t>dfbfbfbgh</t>
+  </si>
+  <si>
+    <t>fgbnhgfbv</t>
+  </si>
+  <si>
+    <t>dfgbfbv</t>
+  </si>
+  <si>
+    <t>dfvbgnhbg</t>
+  </si>
+  <si>
+    <t>fghjmmhn bgfv</t>
+  </si>
+  <si>
+    <t>rghnbgfvd</t>
+  </si>
+  <si>
+    <t>dfvbghfbvdc@gmail.com</t>
+  </si>
+  <si>
+    <t>fvdbgnhjmnhbg</t>
+  </si>
+  <si>
+    <t>dcfvbgnhjnbg</t>
+  </si>
+  <si>
+    <t>rgnhjmhnbgfv</t>
+  </si>
+  <si>
+    <t>fgbnhjmhnbgf</t>
+  </si>
+  <si>
+    <t>dfbgnhmjhngb</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,13 +1949,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,19 +2262,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -480,7 +2284,8 @@
     <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="34.140625" bestFit="1" customWidth="1"/>
@@ -493,16 +2298,15 @@
     <col min="30" max="30" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -600,12 +2404,3165 @@
       <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
-        <v>33</v>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44446</v>
+      </c>
+      <c r="F2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G2" t="s">
+        <v>606</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" t="s">
+        <v>607</v>
+      </c>
+      <c r="L2" t="s">
+        <v>608</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>609</v>
+      </c>
+      <c r="O2" t="s">
+        <v>610</v>
+      </c>
+      <c r="P2" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q2">
+        <v>880</v>
+      </c>
+      <c r="R2">
+        <v>1308877654</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="T2" t="s">
+        <v>612</v>
+      </c>
+      <c r="U2" t="s">
+        <v>613</v>
+      </c>
+      <c r="V2" t="s">
+        <v>614</v>
+      </c>
+      <c r="W2" t="s">
+        <v>615</v>
+      </c>
+      <c r="X2" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>617</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>618</v>
+      </c>
+      <c r="AA2">
+        <v>1780581427</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>620</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>621</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>622</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>623</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>organization_types</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>sub_trades</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>permission_sub_groups</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>divisions</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>districts</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>upazilas</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="AB2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A493"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>